--- a/SuppXls/Scen_Par-Sensitivities.xlsx
+++ b/SuppXls/Scen_Par-Sensitivities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\SuppXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90D5CF1-D375-4F94-8CEC-CAFAB4708001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029AA9D-809C-4997-B476-69E77EC3D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>5,6,10,41,45,46,50</t>
   </si>
   <si>
-    <t>~InputCell: 5,6,10,41,45,46,50</t>
-  </si>
-  <si>
     <t>pset_co</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>~InputCell: 1-50</t>
   </si>
 </sst>
 </file>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -566,7 +566,7 @@
         <v>0.04</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
@@ -920,7 +920,7 @@
         <v>16</v>
       </c>
       <c r="Q17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0.1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>7.4999999999999997E-2</v>
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>0.05</v>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>0.02</v>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0.01</v>
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <f>D18</f>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:D27" si="3">D19</f>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>

--- a/SuppXls/Scen_Par-Sensitivities.xlsx
+++ b/SuppXls/Scen_Par-Sensitivities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\TIMES-GEO\SuppXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029AA9D-809C-4997-B476-69E77EC3D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC55C889-AB39-4FE4-B8F8-76AA6F217786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Ref</t>
   </si>
   <si>
-    <t>~InputCell: 1-50</t>
+    <t>~InputCell: 51-60</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
@@ -485,8 +485,7 @@
   <cols>
     <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,9 +575,6 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -591,8 +587,11 @@
       <c r="G4">
         <v>5</v>
       </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
       <c r="L4">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
         <v>2</v>
@@ -629,6 +628,10 @@
       <c r="G5" s="1">
         <v>43.8</v>
       </c>
+      <c r="H5" s="1">
+        <f>AVERAGE(F5:G5)</f>
+        <v>35.700000000000003</v>
+      </c>
       <c r="P5" t="s">
         <v>3</v>
       </c>
@@ -637,8 +640,8 @@
         <v>2025</v>
       </c>
       <c r="R5" s="1">
-        <f ca="1">OFFSET(A5,0,MATCH($B$14,$B$4:$G$4,0))/1000</f>
-        <v>1.03E-2</v>
+        <f ca="1">OFFSET(A5,0,MATCH($B$14,$B$4:$I$4,0))/1000</f>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="S5" t="s">
         <v>17</v>
@@ -666,16 +669,20 @@
       <c r="G6" s="1">
         <v>64.356569763840014</v>
       </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H10" si="0">AVERAGE(F6:G6)</f>
+        <v>51.533498765580006</v>
+      </c>
       <c r="P6" t="s">
         <v>3</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q10" si="0">A6</f>
+        <f t="shared" ref="Q6:Q10" si="1">A6</f>
         <v>2030</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6:R10" ca="1" si="1">OFFSET(A6,0,MATCH($B$14,$B$4:$G$4,0))/1000</f>
-        <v>1.4111892633180934E-2</v>
+        <f t="shared" ref="R6:R10" ca="1" si="2">OFFSET(A6,0,MATCH($B$14,$B$4:$I$4,0))/1000</f>
+        <v>5.1533498765580006E-2</v>
       </c>
       <c r="S6" t="s">
         <v>17</v>
@@ -703,16 +710,20 @@
       <c r="G7" s="1">
         <v>94.560914880548097</v>
       </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>74.42714617087006</v>
+      </c>
       <c r="P7" t="s">
         <v>3</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2035</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.93345158922744E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4427146170870054E-2</v>
       </c>
       <c r="S7" t="s">
         <v>17</v>
@@ -740,16 +751,20 @@
       <c r="G8" s="1">
         <v>138.94100720188428</v>
       </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>107.54513886281376</v>
+      </c>
       <c r="P8" t="s">
         <v>3</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.64899623676026E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10754513886281376</v>
       </c>
       <c r="S8" t="s">
         <v>17</v>
@@ -777,16 +792,20 @@
       <c r="G9" s="1">
         <v>204.14992290059962</v>
       </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>155.47660703260911</v>
+      </c>
       <c r="P9" t="s">
         <v>3</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6293544154234109E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1554766070326091</v>
       </c>
       <c r="S9" t="s">
         <v>17</v>
@@ -814,16 +833,20 @@
       <c r="G10" s="1">
         <v>299.9632135944064</v>
       </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>224.88017723089911</v>
+      </c>
       <c r="P10" t="s">
         <v>3</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.9725300813802248E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22488017723089912</v>
       </c>
       <c r="S10" t="s">
         <v>17</v>
@@ -857,7 +880,7 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B14">
         <f>VLOOKUP($L$4,$A$18:$D$83,B$13,FALSE)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP($L$4,$A$18:$D$83,C$13,FALSE)</f>
@@ -865,7 +888,7 @@
       </c>
       <c r="D14">
         <f>VLOOKUP($L$4,$A$18:$D$83,D$13,FALSE)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
@@ -954,7 +977,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20">
-        <f t="shared" ref="A20:A67" si="2">A19+1</f>
+        <f t="shared" ref="A20:A79" si="3">A19+1</f>
         <v>3</v>
       </c>
       <c r="B20">
@@ -972,7 +995,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B21">
@@ -993,7 +1016,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B22">
@@ -1010,12 +1033,12 @@
       </c>
       <c r="M22">
         <f>$D$14</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B23">
@@ -1031,7 +1054,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B24">
@@ -1041,13 +1064,13 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:D27" si="3">D19</f>
+        <f t="shared" ref="D24:D27" si="4">D19</f>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B25">
@@ -1057,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B26">
@@ -1073,13 +1096,13 @@
         <v>22</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B27">
@@ -1089,13 +1112,13 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B28">
@@ -1107,709 +1130,889 @@
         <v>Hi</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D67" si="4">D18</f>
+        <f t="shared" ref="D28:D79" si="5">D18</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B67" si="5">B19+1</f>
+        <f t="shared" ref="B29:B79" si="6">B19+1</f>
         <v>2</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29" si="6">C19</f>
+        <f t="shared" ref="C29" si="7">C19</f>
         <v>Hi</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30" si="7">C20</f>
+        <f t="shared" ref="C30" si="8">C20</f>
         <v>Hi</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31" si="8">C21</f>
+        <f t="shared" ref="C31" si="9">C21</f>
         <v>Hi</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ref="C32" si="9">C22</f>
+        <f t="shared" ref="C32" si="10">C22</f>
         <v>Hi</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33" si="10">C23</f>
+        <f t="shared" ref="C33" si="11">C23</f>
         <v>Ref</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34" si="11">C24</f>
+        <f t="shared" ref="C34" si="12">C24</f>
         <v>Ref</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35" si="12">C25</f>
+        <f t="shared" ref="C35" si="13">C25</f>
         <v>Ref</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ref="C36" si="13">C26</f>
+        <f t="shared" ref="C36" si="14">C26</f>
         <v>Ref</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:C67" si="14">C27</f>
+        <f t="shared" ref="C37:C79" si="15">C27</f>
         <v>Ref</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Hi</v>
       </c>
       <c r="D62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Ref</v>
       </c>
       <c r="D67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="15"/>
+        <v>Hi</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="15"/>
+        <v>Hi</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="15"/>
+        <v>Hi</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="15"/>
+        <v>Hi</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="15"/>
+        <v>Hi</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="15"/>
+        <v>Ref</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="15"/>
+        <v>Ref</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="15"/>
+        <v>Ref</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="15"/>
+        <v>Ref</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="15"/>
+        <v>Ref</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
     </row>
